--- a/medicine/Mort/La_Découverte_du_cadavre_d'Holopherne/La_Découverte_du_cadavre_d'Holopherne.xlsx
+++ b/medicine/Mort/La_Découverte_du_cadavre_d'Holopherne/La_Découverte_du_cadavre_d'Holopherne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_D%C3%A9couverte_du_cadavre_d%27Holopherne</t>
+          <t>La_Découverte_du_cadavre_d'Holopherne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Découverte du cadavre d'Holopherne (en italien : Scoperta del cadavere di Oloferne) est un tableau, peint vers 1470 par Sandro Botticelli.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_D%C3%A9couverte_du_cadavre_d%27Holopherne</t>
+          <t>La_Découverte_du_cadavre_d'Holopherne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Le récit biblique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sous le règne de Manassé, successeur de son père Ézéchias à la tête du royaume de Juda, le pays est conquis par Holopherne, le général en chef de Nabuchodonosor II, désireux d'annexer à son empire les pays voisins et de se faire adorer comme le seul Dieu 
@@ -548,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_D%C3%A9couverte_du_cadavre_d%27Holopherne</t>
+          <t>La_Découverte_du_cadavre_d'Holopherne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,9 +580,11 @@
           <t>Données historiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du propriétaire des deux panneaux est documenté à partir du XVIe siècle. Ils sont offerts à Bianca Cappello, la seconde épouse de François Ier de Médicis, par le sculpteur et peintre Ridolfo Sirigatti, afin de « décorer un bureau, avec des peintures et des statues antiques »[1]. Légués à son fils Antoine de Médicis par le Grand-duc de Toscane, les deux tableaux sont répertoriés, entre 1587 et 1632, année de leur entrée dans les collections des Offices, dans l'inventaire du Casino Mediceo di San Marco[2]. Comme le précise cet inventaire, un cadre en noyer les réunissait, constituant ainsi un diptyque. Les documents sont manquants pour confirmer que cette disposition était celle prévue à l'origine par le peintre ou le commanditaire.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du propriétaire des deux panneaux est documenté à partir du XVIe siècle. Ils sont offerts à Bianca Cappello, la seconde épouse de François Ier de Médicis, par le sculpteur et peintre Ridolfo Sirigatti, afin de « décorer un bureau, avec des peintures et des statues antiques ». Légués à son fils Antoine de Médicis par le Grand-duc de Toscane, les deux tableaux sont répertoriés, entre 1587 et 1632, année de leur entrée dans les collections des Offices, dans l'inventaire du Casino Mediceo di San Marco. Comme le précise cet inventaire, un cadre en noyer les réunissait, constituant ainsi un diptyque. Les documents sont manquants pour confirmer que cette disposition était celle prévue à l'origine par le peintre ou le commanditaire.
 </t>
         </is>
       </c>
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_D%C3%A9couverte_du_cadavre_d%27Holopherne</t>
+          <t>La_Découverte_du_cadavre_d'Holopherne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,9 +613,11 @@
           <t>Attribution et datation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les historiens s'accordent pour l'attribution à Botticelli, comme une œuvre de jeunesse, mais sont divisés quant à sa datation. Le rapprochement stylistique du visage de Judith, au dessin cependant moins défini, du panneau Le Retour de Judith à Béthulie, avec celui de la Force, tableau allégorique représentant cette vertu et commandé en 1470, plaide pour une exécution antérieure, soit à la fin des années 1460 ou au début de l'année 1470[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les historiens s'accordent pour l'attribution à Botticelli, comme une œuvre de jeunesse, mais sont divisés quant à sa datation. Le rapprochement stylistique du visage de Judith, au dessin cependant moins défini, du panneau Le Retour de Judith à Béthulie, avec celui de la Force, tableau allégorique représentant cette vertu et commandé en 1470, plaide pour une exécution antérieure, soit à la fin des années 1460 ou au début de l'année 1470. 
 </t>
         </is>
       </c>
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_D%C3%A9couverte_du_cadavre_d%27Holopherne</t>
+          <t>La_Découverte_du_cadavre_d'Holopherne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’iconographie de Judith est traditionnellement déclinée en deux modes. Le premier la représente sortant triomphante de la tente, avec la tête d'Holopherne et le cimeterre dégainé. 
 Le deuxième, plus rarement représenté, narre le récit de l'histoire de Judith où la violence atteint son paroxysme avec la décollation d'Holopherne.
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_D%C3%A9couverte_du_cadavre_d%27Holopherne</t>
+          <t>La_Découverte_du_cadavre_d'Holopherne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,12 +685,14 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans cette œuvre assurément de jeunesse, l'influence de la période d'apprentissage de Botticelli chez les orfèvres est reconnaissable par le soin apporté dans le traitement méticuleux de la forme. 
 Le peintre utilise une gamme chromatique rigoureusement limitée à trois couleurs : le blanc du cheval et des draps, le rouge du sang et des vêtements et le bleu de la tente et des vêtements, et l'harmonie de couleurs qui en résulte est beaucoup plus sombre que son pendant.
-Placés les uns derrière les autres dans un espace confiné, cette disposition des personnages rappellent tout particulièrement la structure d'un relief antique[4].
-Ronald Lightbown souligne l'incongruité entre la tête tranchée d'Holopherne, dans le pendant, emportée par la servante Abra, dont les traits, la moustache blanche et les cheveux poivre et sel sont ceux d'une personne d'âge mur[5] et son corps décapité, manifestement celui d'un jeune homme.
+Placés les uns derrière les autres dans un espace confiné, cette disposition des personnages rappellent tout particulièrement la structure d'un relief antique.
+Ronald Lightbown souligne l'incongruité entre la tête tranchée d'Holopherne, dans le pendant, emportée par la servante Abra, dont les traits, la moustache blanche et les cheveux poivre et sel sont ceux d'une personne d'âge mur et son corps décapité, manifestement celui d'un jeune homme.
 </t>
         </is>
       </c>
@@ -681,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>La_D%C3%A9couverte_du_cadavre_d%27Holopherne</t>
+          <t>La_Découverte_du_cadavre_d'Holopherne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -699,9 +721,11 @@
           <t>Le thème de Judith par Botticelli</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considérée comme une œuvre autographe du peintre et représentative d'une phase de préparation ou d'étude du panneau Le Retour de Judith à Béthulie[6], une première version de cet épisode est exécutée vers 1468-1469 ; d'un format légèrement inférieur (29,2 × 21,6 cm), elle est aujourd'hui conservée au Musée d'art de Cincinnati.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considérée comme une œuvre autographe du peintre et représentative d'une phase de préparation ou d'étude du panneau Le Retour de Judith à Béthulie, une première version de cet épisode est exécutée vers 1468-1469 ; d'un format légèrement inférieur (29,2 × 21,6 cm), elle est aujourd'hui conservée au Musée d'art de Cincinnati.
 Le sujet est à nouveau abordé par Botticelli durant la dernière période de son activité avec Judith quittant la tente d'Holopherne, que conserve le Rijksmuseum d'Amsterdam. D'une tonalité plus sombre, le tableau représente Judith sortant de la tente du général assyrien, tenant d'une main sa tête tranchée et de l'autre son cimeterre dégainé.
 			Retour de Judith à Béthulie, Musée d'art de Cincinnati.
 			Judith quittant la tente d'Holopherne, Rijksmuseum.
